--- a/medicine/Psychotrope/Thé_à_la_menthe_ou_t'es_citron__/Thé_à_la_menthe_ou_t'es_citron__.xlsx
+++ b/medicine/Psychotrope/Thé_à_la_menthe_ou_t'es_citron__/Thé_à_la_menthe_ou_t'es_citron__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_la_menthe_ou_t%27es_citron_%3F</t>
+          <t>Thé_à_la_menthe_ou_t'es_citron_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thé à la menthe ou t'es citron ? est une pièce de théâtre comique de Patrick Haudecœur et Danielle Navarro-Haudecœur.  Elle a été créée par ses auteurs à Paris, au Café de la Gare en juin 1991, et représentée plus de 200 fois dans ce théâtre, avec Jacques Courtès, Jean-Pierre Lazzerini, Véronique Lemoine et François Legrand, puis au théâtre des Variétés de septembre 1992 au 1er avril 1993, Véronique Barrault remplaçant alors Véronique Lemoine. Elle a reçu le Molière du meilleur spectacle comique 2011 pour sa nouvelle mise en scène par Patrick Haudecœur au théâtre Fontaine. Elle a été reprise ensuite à plusieurs reprises, par des comédiens professionnels ou amateurs.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_la_menthe_ou_t%27es_citron_%3F</t>
+          <t>Thé_à_la_menthe_ou_t'es_citron_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La scène débute dans un salon. Un majordome, prénommé Victor, vient annoncer à la maîtresse de maison, la comtesse Marie-Agnès, la venue d’Henri Dujardin qui vient rapporter le porte-cigarette qu’elle avait oublié lors d’une soirée. En engageant la conversation avec la comtesse, il apprend que son mari est en voyage d’affaire aux Indes. Pendant que la comtesse commande du thé au majordome, Henri Dujardin dit en aparté que cette nouvelle le réjouit, car elle va lui permettre de mettre son « pan au ploint ». Le majordome demande : « Thé à la menthe ou thé citron ? » Le thé arrive et, au moment de le boire, le comédien qui joue Dujardin le renverse sur l’actrice — C'est à ce moment-là que le public comprend qu'il s'agit d'une pièce dans une pièce. La répétition s’interrompt alors car l’actrice exprime sa colère à la metteuse en scène : « À chaque fois c’est la même chose, il est vraiment neuneu celui-là ! » Arrive sur scène Richard, qui demande si c’est à son tour de jouer, mais ce n'est pas le cas. La scène est rejouée, Clara, la metteuse en scène, demande à Dujardin de mieux jouer son aparté, il le refait en imitant le mouvement des ailes du papillon. En plein milieu de la réplique, arrive le technicien qui interrompt la scène pour des soucis de lumière dans les loges. Comme la répétition est à nouveau interrompue, la metteuse en scène en profite pour demander un meilleur éclairage ; s’ensuit un jeu de lumière. Richard revient alors sur scène, mais ce n’est toujours pas son tour. 
 Arrive la répétition de la scène de la déclaration d’amour et du baiser, mais l’acteur qui joue Dujardin, d’un naturel timide et cruche (on apprend qu'il a eu le rôle car c’est le fils de l’auteur de cette pièce), fait une accolade à la comtesse à la place du baiser. Tout le monde s’en mêle, chacun donne son avis et la metteuse en scène répète sa phrase fétiche : « C’est un petit détail, on verra ça plus tard ». Cette dernière demande à la costumière de fournir un costume raffiné et romantique pour Dujardin. La répétition reprend : Dujardin prétend aller se reposer mais il fait un nouvel aparté où il annonce qu’il est un gentleman cambrioleur venu pour dérober les bijoux de la comtesse. Il se retrouve seul dans le salon avec la robe de chambre du mari sur le dos. Il réfléchit à voix haute à l’endroit où pourraient se trouver les bijoux, cherche derrière le tableau, va sous le bureau à la recherche d’un tiroir à double fond. À ce moment, débarque le majordome qui, voyant la robe de chambre, pense que c’est Monsieur le comte qui est rentré plus tôt et qui est bloqué sous le bureau pour cause de coliques, puis repart lui préparer du thé à la menthe pour le soigner. Dujardin entend Victor revenir et va se cacher dans l’armoire dans laquelle l'acteur se blesse ; il saigne et se plaint à Clara. De nouveau, tout le monde s’en mêle, et pour calmer la tension, Clara répète sa phrase fétiche. L'acteur qui joue Dujardin retourne en coulisse et c’est enfin la scène de Richard, qui interprète Monsieur le comte et maitrise mal ses répliques.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_%C3%A0_la_menthe_ou_t%27es_citron_%3F</t>
+          <t>Thé_à_la_menthe_ou_t'es_citron_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Mise en scène au théâtre Fontaine (2013)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le metteur en scène est Patrick Haudecœur et les acteurs sont Nathalie Cerda ou Marie Lenoir, Urbain Cancelier, Éliza Maillot, Bernard Fructus, Sandra Biadalla, Edouard Prétet, Guillaume Laffly ou Bob Martet, Michel Lagueyrie, Marina Valleix.
 Durant la « répétition » le décor est en chantier. La peinture n'est pas finie, le mobilier n'est pas adapté au contexte de la pièce et même défaillant (un seau au lieu d’un vase, des gobelets au lieu de tasses et soucoupes à café). Les comédiens sont en habit de ville, sauf le majordome qui joue déjà en costume pour mieux s’imprégner de son personnage. La personne en régie fait des tests de lumière, il y a aussi une coupure de courant qui plonge la salle dans l’obscurité pendant quelques secondes et des effets sonores tels que le bruit de la pluie ou une musique baroque.
